--- a/onset_detection/init_para.xlsx
+++ b/onset_detection/init_para.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15680" windowHeight="11740"/>
+    <workbookView windowWidth="15680" windowHeight="11720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,74 @@
   <si>
     <t>Group data proc: 
 qViewTrialByTrial</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>iTrial</t>
+  </si>
+  <si>
+    <t>iChannel</t>
+  </si>
+  <si>
+    <t>should be the same cross-channel:
+min_Length</t>
+  </si>
+  <si>
+    <t>high_threshold</t>
+  </si>
+  <si>
+    <t>min_duration</t>
+  </si>
+  <si>
+    <t>min_n_sample</t>
+  </si>
+  <si>
+    <t>peak_direction</t>
+  </si>
+  <si>
+    <t>iSolution</t>
+  </si>
+  <si>
+    <t>wtc_frequency</t>
+  </si>
+  <si>
+    <t>wtc_signma_thres</t>
+  </si>
+  <si>
+    <t>qPlot</t>
+  </si>
+  <si>
+    <t>Group data proc:
+ nStartTrial</t>
+  </si>
+  <si>
+    <t>Group data proc: 
+nEndTrial</t>
+  </si>
+  <si>
+    <t>Group data proc: 
+min_onset_allowed (N_sample)</t>
+  </si>
+  <si>
+    <t>Group data proc: 
+max_onset_allowed (N_sample)</t>
+  </si>
+  <si>
+    <t>Group data proc: 
+min_diff_allowed (second)</t>
+  </si>
+  <si>
+    <t>Group data proc: 
+max_diff_allowed (second)</t>
+  </si>
+  <si>
+    <t>Group data proc: 
+qViewTrialByTrial</t>
+  </si>
+  <si>
+    <t>RangeInputBox</t>
   </si>
 </sst>
 </file>
@@ -264,7 +332,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39997558519242"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,19 +344,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79998168889431"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,7 +374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.5999938962981"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,13 +386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.39997558519242"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.5999938962981"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,19 +404,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.79998168889431"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.5999938962981"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.5999938962981"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,13 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.39997558519242"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519242"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,13 +446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.39997558519242"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,7 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.39997558519242"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,24 +494,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.79998168889431"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.5999938962981"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.5999938962981"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -480,7 +548,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4" tint="0.49998474074526"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,169 +617,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1031,320 +1101,384 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="24.859375" customWidth="1"/>
-    <col min="4" max="4" width="22.7890625" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="true"/>
+    <col min="4" max="4" width="14.5703125" customWidth="true"/>
+    <col min="1" max="1" width="5.140625" customWidth="true"/>
+    <col min="2" max="2" width="6.42578125" customWidth="true"/>
+    <col min="5" max="5" width="3.85546875" customWidth="true"/>
+    <col min="6" max="6" width="6.140625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="0">
+        <v>1</v>
+      </c>
+      <c r="F1" s="0">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="42">
+      <c r="A3" s="0">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="0">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
+      <c r="B4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0">
+        <v>-10</v>
+      </c>
+      <c r="F4" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>100</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="0">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0">
         <v>10000</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="6">
+      <c r="A6" s="0">
+        <v>50</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="0">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="0">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>135</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F8" s="0">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>44</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="0">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>1</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>1</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="28">
+      <c r="A12" s="0">
+        <v>1</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="0">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" ht="28">
+      <c r="A13" s="0">
+        <v>1</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="0">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" ht="24">
+      <c r="A14" s="0">
+        <v>1</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" ht="28">
+      <c r="A15" s="0">
+        <v>1</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>1</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="0">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" ht="42" spans="1:6">
-      <c r="A3">
-        <v>1000</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>1</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="0">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="F17" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>1</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>-10</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>100</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>100</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>-1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>135</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="28" spans="1:6">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="13" ht="28" spans="1:6">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" ht="24" spans="1:6">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="15" ht="28" spans="1:6">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="F18" s="0">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555556" footer="0.51180555555556"/>
   <headerFooter/>
 </worksheet>
 </file>